--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp8a-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp8a-Acvr2a.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3786073333333333</v>
+        <v>0.01037833333333333</v>
       </c>
       <c r="H2">
-        <v>1.135822</v>
+        <v>0.031135</v>
       </c>
       <c r="I2">
-        <v>0.3713290366620656</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="J2">
-        <v>0.3713290366620657</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N2">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q2">
-        <v>5.534778322006222</v>
+        <v>0.1486372549783334</v>
       </c>
       <c r="R2">
-        <v>49.81300489805599</v>
+        <v>1.337735294805</v>
       </c>
       <c r="S2">
-        <v>0.09887860304230695</v>
+        <v>0.006236229226847496</v>
       </c>
       <c r="T2">
-        <v>0.09887860304230696</v>
+        <v>0.006236229226847496</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3786073333333333</v>
+        <v>0.01037833333333333</v>
       </c>
       <c r="H3">
-        <v>1.135822</v>
+        <v>0.031135</v>
       </c>
       <c r="I3">
-        <v>0.3713290366620656</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="J3">
-        <v>0.3713290366620657</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>27.084169</v>
       </c>
       <c r="N3">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q3">
-        <v>10.25426500063933</v>
+        <v>0.2810885339383334</v>
       </c>
       <c r="R3">
-        <v>92.28838500575398</v>
+        <v>2.529796805445001</v>
       </c>
       <c r="S3">
-        <v>0.1831920520569854</v>
+        <v>0.0117933591476341</v>
       </c>
       <c r="T3">
-        <v>0.1831920520569854</v>
+        <v>0.0117933591476341</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3786073333333333</v>
+        <v>0.01037833333333333</v>
       </c>
       <c r="H4">
-        <v>1.135822</v>
+        <v>0.031135</v>
       </c>
       <c r="I4">
-        <v>0.3713290366620656</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="J4">
-        <v>0.3713290366620657</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N4">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q4">
-        <v>4.996281704340222</v>
+        <v>0.07420290734277778</v>
       </c>
       <c r="R4">
-        <v>44.966535339062</v>
+        <v>0.667826166085</v>
       </c>
       <c r="S4">
-        <v>0.08925838156277333</v>
+        <v>0.003113259455414065</v>
       </c>
       <c r="T4">
-        <v>0.08925838156277334</v>
+        <v>0.003113259455414064</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4265683333333334</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H5">
         <v>1.279705</v>
       </c>
       <c r="I5">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="J5">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N5">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O5">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P5">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q5">
-        <v>6.235909757482223</v>
+        <v>6.109260908368332</v>
       </c>
       <c r="R5">
-        <v>56.12318781734</v>
+        <v>54.98334817531499</v>
       </c>
       <c r="S5">
-        <v>0.1114042893219672</v>
+        <v>0.2563203379715071</v>
       </c>
       <c r="T5">
-        <v>0.1114042893219672</v>
+        <v>0.2563203379715071</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4265683333333334</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H6">
         <v>1.279705</v>
       </c>
       <c r="I6">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="J6">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>27.084169</v>
       </c>
       <c r="N6">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O6">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P6">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q6">
         <v>11.55324883004833</v>
@@ -818,10 +818,10 @@
         <v>103.979239470435</v>
       </c>
       <c r="S6">
-        <v>0.2063983484890982</v>
+        <v>0.4847284621173306</v>
       </c>
       <c r="T6">
-        <v>0.2063983484890982</v>
+        <v>0.4847284621173306</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4265683333333334</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H7">
         <v>1.279705</v>
       </c>
       <c r="I7">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="J7">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N7">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O7">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P7">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q7">
-        <v>5.629197777867224</v>
+        <v>3.049874146172777</v>
       </c>
       <c r="R7">
-        <v>50.66278000080501</v>
+        <v>27.448867315555</v>
       </c>
       <c r="S7">
-        <v>0.100565403010145</v>
+        <v>0.1279606131810071</v>
       </c>
       <c r="T7">
-        <v>0.100565403010145</v>
+        <v>0.127960613181007</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.214425</v>
+        <v>0.05392066666666667</v>
       </c>
       <c r="H8">
-        <v>0.6432749999999999</v>
+        <v>0.161762</v>
       </c>
       <c r="I8">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="J8">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N8">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O8">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P8">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q8">
-        <v>3.134632473299999</v>
+        <v>0.7722453714406666</v>
       </c>
       <c r="R8">
-        <v>28.21169225969999</v>
+        <v>6.950208342966</v>
       </c>
       <c r="S8">
-        <v>0.05600008924993529</v>
+        <v>0.03240035047995197</v>
       </c>
       <c r="T8">
-        <v>0.0560000892499353</v>
+        <v>0.03240035047995197</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.214425</v>
+        <v>0.05392066666666667</v>
       </c>
       <c r="H9">
-        <v>0.6432749999999999</v>
+        <v>0.161762</v>
       </c>
       <c r="I9">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="J9">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>27.084169</v>
       </c>
       <c r="N9">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O9">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P9">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q9">
-        <v>5.807522937825</v>
+        <v>1.460396448592667</v>
       </c>
       <c r="R9">
-        <v>52.26770644042499</v>
+        <v>13.143568037334</v>
       </c>
       <c r="S9">
-        <v>0.1037511751726567</v>
+        <v>0.06127243817053433</v>
       </c>
       <c r="T9">
-        <v>0.1037511751726567</v>
+        <v>0.06127243817053433</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.214425</v>
+        <v>0.05392066666666667</v>
       </c>
       <c r="H10">
-        <v>0.6432749999999999</v>
+        <v>0.161762</v>
       </c>
       <c r="I10">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="J10">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N10">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O10">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P10">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q10">
-        <v>2.829653865975</v>
+        <v>0.3855214613002222</v>
       </c>
       <c r="R10">
-        <v>25.466884793775</v>
+        <v>3.469693151702</v>
       </c>
       <c r="S10">
-        <v>0.05055165809413183</v>
+        <v>0.01617495024977324</v>
       </c>
       <c r="T10">
-        <v>0.05055165809413184</v>
+        <v>0.01617495024977324</v>
       </c>
     </row>
   </sheetData>
